--- a/QualityControl/SkadekontrolORG.xlsx
+++ b/QualityControl/SkadekontrolORG.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>PriviligedUser</t>
   </si>
@@ -54,9 +54,6 @@
     <t>BatchDate</t>
   </si>
   <si>
-    <t>BatchId</t>
-  </si>
-  <si>
     <t>Lea Frimand Byager</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>trni@lb.dk</t>
+  </si>
+  <si>
+    <t>ExtractionID</t>
+  </si>
+  <si>
+    <t>BatchID</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -171,6 +178,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:L11" totalsRowShown="0">
+  <autoFilter ref="A1:L11"/>
+  <sortState ref="A2:L11">
+    <sortCondition ref="G1:G11"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" name="PriviligedUser"/>
+    <tableColumn id="2" name="PriviligedUserEmail"/>
+    <tableColumn id="3" name="Initialer"/>
+    <tableColumn id="4" name="Department"/>
+    <tableColumn id="5" name="Subdepartment"/>
+    <tableColumn id="6" name="Fordeling"/>
+    <tableColumn id="7" name="Employee"/>
+    <tableColumn id="8" name="EmployeeEmail"/>
+    <tableColumn id="9" name="ClaimID"/>
+    <tableColumn id="10" name="BatchDate" dataDxfId="0"/>
+    <tableColumn id="11" name="BatchID"/>
+    <tableColumn id="12" name="ExtractionID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,28 +491,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,36 +545,39 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1">
         <v>43382</v>
@@ -550,206 +585,224 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>43382</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
         <v>43382</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
       <c r="F5">
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
         <v>43382</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
       <c r="F6">
         <v>70</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
       <c r="I6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1">
         <v>43382</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
       <c r="F7">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
         <v>43382</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
       </c>
       <c r="F8">
         <v>70</v>
       </c>
       <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -758,33 +811,36 @@
         <v>43382</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
       <c r="F9">
         <v>70</v>
       </c>
       <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -793,33 +849,36 @@
         <v>43382</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
       </c>
       <c r="F10">
         <v>70</v>
       </c>
       <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -828,33 +887,36 @@
         <v>43382</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
       <c r="F11">
         <v>70</v>
       </c>
       <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
         <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -863,11 +925,17 @@
         <v>43382</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>